--- a/17_TwigFarm/Gcon_Diff/헤이버니 분석 비교/data_crawling/results/헤이버니 사전(한-영).xlsx_01271737_엑셀.xlsx
+++ b/17_TwigFarm/Gcon_Diff/헤이버니 분석 비교/data_crawling/results/헤이버니 사전(한-영).xlsx_01271737_엑셀.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haley/Desktop/GIT/TIL/17_TwigFarm/Gcon_Diff/헤이버니 분석 비교/data_crawling/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD46C3-382D-384E-9D77-9BFFE71186E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6880" yWindow="7760" windowWidth="25600" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -715,8 +721,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,6 +741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,15 +763,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -806,7 +827,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -838,9 +859,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -872,6 +911,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1047,14 +1104,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="46.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +1170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1122,7 +1187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1139,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1173,7 +1238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1190,7 +1255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1207,7 +1272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1224,7 +1289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1241,7 +1306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1258,7 +1323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1275,7 +1340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1292,7 +1357,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1309,7 +1374,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -1326,7 +1391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -1343,7 +1408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1360,7 +1425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1377,7 +1442,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -1394,7 +1459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -1411,7 +1476,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -1428,7 +1493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -1445,7 +1510,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -1462,7 +1527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -1479,7 +1544,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -1496,7 +1561,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -1513,7 +1578,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -1530,7 +1595,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -1547,24 +1612,24 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>134</v>
       </c>
       <c r="B30" t="s">
         <v>135</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -1581,7 +1646,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -1598,7 +1663,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -1615,7 +1680,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -1632,7 +1697,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -1649,7 +1714,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -1666,7 +1731,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -1683,7 +1748,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -1700,7 +1765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -1717,7 +1782,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -1734,7 +1799,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -1751,7 +1816,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -1768,7 +1833,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>192</v>
       </c>
@@ -1785,7 +1850,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>196</v>
       </c>
@@ -1802,7 +1867,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>200</v>
       </c>
@@ -1819,7 +1884,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>205</v>
       </c>
@@ -1836,7 +1901,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -1853,7 +1918,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -1870,7 +1935,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>218</v>
       </c>
@@ -1887,7 +1952,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -1904,7 +1969,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>227</v>
       </c>
